--- a/Datos/Estructura para base de datos.xlsx
+++ b/Datos/Estructura para base de datos.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="660" windowWidth="19635" windowHeight="7950"/>
+    <workbookView xWindow="720" yWindow="660" windowWidth="19635" windowHeight="7950" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Estructura" sheetId="1" r:id="rId1"/>
+    <sheet name="Etapas según tipo de tejido" sheetId="2" r:id="rId2"/>
+    <sheet name="Ejemplo" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>Empresa</t>
   </si>
@@ -88,9 +90,6 @@
     <t>Arato Perú</t>
   </si>
   <si>
-    <t>INAGRO</t>
-  </si>
-  <si>
     <t>Hass</t>
   </si>
   <si>
@@ -103,9 +102,6 @@
     <t>Mexicano</t>
   </si>
   <si>
-    <t>Antillano</t>
-  </si>
-  <si>
     <t>Patron</t>
   </si>
   <si>
@@ -143,13 +139,76 @@
   </si>
   <si>
     <t>Campaña</t>
+  </si>
+  <si>
+    <t>2011-2012</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>p_fruto_aceituna</t>
+  </si>
+  <si>
+    <t>p_fruto_1</t>
+  </si>
+  <si>
+    <t>p_fruto_2</t>
+  </si>
+  <si>
+    <t>p_fruto_3</t>
+  </si>
+  <si>
+    <t>p_fruto_cosecha</t>
+  </si>
+  <si>
+    <t>p_fruto_media_cosecha</t>
+  </si>
+  <si>
+    <t>f_hoja_5cm</t>
+  </si>
+  <si>
+    <t>f_antesis</t>
+  </si>
+  <si>
+    <t>f_cuadrado_fruto</t>
+  </si>
+  <si>
+    <t>f_fruto_aceituna</t>
+  </si>
+  <si>
+    <t>f_fruto_1</t>
+  </si>
+  <si>
+    <t>f_fruto_2</t>
+  </si>
+  <si>
+    <t>f_fruto_3</t>
+  </si>
+  <si>
+    <t>f_fruto_cosecha</t>
+  </si>
+  <si>
+    <t>f_fruto_media_cosecha</t>
+  </si>
+  <si>
+    <t>Id para codigo</t>
+  </si>
+  <si>
+    <t>Fruto en media cosecha (≥ 24% MS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -188,16 +247,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -289,7 +375,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -324,7 +409,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,234 +584,784 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="24" width="7" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="24" width="7" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="4.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="3">
+        <v>501</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="I2" s="2">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4">
+        <v>40862</v>
+      </c>
+      <c r="K2" s="5">
+        <v>2.78</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1.44</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>101</v>
+      </c>
+      <c r="R2" s="5">
+        <v>1</v>
+      </c>
+      <c r="S2" s="6">
+        <v>59</v>
+      </c>
+      <c r="T2" s="6">
+        <v>32</v>
+      </c>
+      <c r="U2" s="6">
+        <v>60</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="W2" s="6">
+        <v>250</v>
+      </c>
+      <c r="X2" s="6">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="3">
+        <v>501</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="J3" s="4">
+        <v>40863</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2.37</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>102.8</v>
+      </c>
+      <c r="R3" s="5">
+        <v>6.26</v>
+      </c>
+      <c r="S3" s="6">
+        <v>83.15</v>
+      </c>
+      <c r="T3" s="6">
+        <v>26.6</v>
+      </c>
+      <c r="U3" s="6">
+        <v>54.3</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="W3" s="6">
+        <v>500</v>
+      </c>
+      <c r="X3" s="6">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3">
+        <v>503</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4">
+        <v>42599</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1.37</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>111.83</v>
+      </c>
+      <c r="R4" s="5">
+        <v>6.51</v>
+      </c>
+      <c r="S4" s="6">
+        <v>106.19</v>
+      </c>
+      <c r="T4" s="6">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="U4" s="6">
+        <v>43.69</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="W4" s="6">
+        <v>458.66</v>
+      </c>
+      <c r="X4" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3">
+        <v>511</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="J5" s="4">
+        <v>40865</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2.34</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1.44</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>96.94</v>
+      </c>
+      <c r="R5" s="5">
+        <v>6.05</v>
+      </c>
+      <c r="S5" s="6">
+        <v>91.44</v>
+      </c>
+      <c r="T5" s="6">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="U5" s="6">
+        <v>59.99</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="W5" s="6">
+        <v>432.31</v>
+      </c>
+      <c r="X5" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3">
+        <v>511</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
+      <c r="J6" s="4">
+        <v>42599</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2.38</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1.62</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>129.16999999999999</v>
+      </c>
+      <c r="R6" s="5">
+        <v>4.91</v>
+      </c>
+      <c r="S6" s="6">
+        <v>81.84</v>
+      </c>
+      <c r="T6" s="6">
+        <v>36.75</v>
+      </c>
+      <c r="U6" s="6">
+        <v>54.22</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="W6" s="6">
+        <v>290.18</v>
+      </c>
+      <c r="X6" s="6">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datos/Estructura para base de datos.xlsx
+++ b/Datos/Estructura para base de datos.xlsx
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15"/>
